--- a/sku_list.xlsx
+++ b/sku_list.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A80"/>
+  <dimension ref="A1:A85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,406 +443,406 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>B09X1F2SKH</t>
+          <t>B09MRNQ7KF</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>B09X1DFGQ8</t>
+          <t>B09P1GR6NK</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>B09MRMZSC7</t>
+          <t>B09X1CQ2VK</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>B09KRL1DJR</t>
+          <t>B09PV758HF</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>B09MVJ4FDT</t>
+          <t>B09Z4PMXB1</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>B09SV5GYD4</t>
+          <t>B09VY79JLC</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>B09P55CYRB</t>
+          <t>B09PNGKWKN</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>B09H5S49MF</t>
+          <t>B09MRM9V12</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>B09PNGKK6B</t>
+          <t>B09H5S49MF</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>B09MRLXKPN</t>
+          <t>B09PV66S6B</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>B09XTN117R</t>
+          <t>B09X1DP1MW</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>B09PYJ8DSD</t>
+          <t>B09V55QX2V</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>B09VY79JLC</t>
+          <t>B09X1PPT4R</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>B09Z2W2927</t>
+          <t>B09SV57798</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>B09MVW4BMH</t>
+          <t>B09X1GLXXF</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>B09VY7FRG7</t>
+          <t>B09PYJ8DSD</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>B09P55216R</t>
+          <t>B09MTQTRC6</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>B09SV5WFSW</t>
+          <t>B09N166GM8</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>B09X1CQ2VK</t>
+          <t>B09PNFRBJX</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>B09MVW4BX3</t>
+          <t>B09MRMZSC7</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>B09PFVTTJP</t>
+          <t>B09N157JW9</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>B09PNFJCH2</t>
+          <t>B09PNDVJ79</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>B09JG93M6L</t>
+          <t>B09Z2W2927</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>B09V7Q3ZVF</t>
+          <t>B09YD1QFHC</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>B09X1GLXXF</t>
+          <t>B09PNGKK6B</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>B09N166GM8</t>
+          <t>B09WH5VPJB</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>B09P1HR8X6</t>
+          <t>B09DY2XB3D</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>B09PV66S6B</t>
+          <t>B09RZLZNCX</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>B09PNFRBJX</t>
+          <t>B09MRN5Y2Y</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>B09MTS6XKC</t>
+          <t>B09SV4F1CD</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>B09PV758HF</t>
+          <t>B09X1F2SKH</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>B09H5RP6RP</t>
+          <t>B09PBPD927</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>B09N14N3W1</t>
+          <t>B09MVHTV4Z</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>B09PBMNPKT</t>
+          <t>B09N12ZX71</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>B09P1GR6NK</t>
+          <t>B09PV7YBP1</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>B09PNDVJ79</t>
+          <t>B09WGLYGMM</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>B09WGLYGMM</t>
+          <t>B09XTLCRH7</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>B09YD1QFHC</t>
+          <t>B09TP8LPM9</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>B09PQJ8T1V</t>
+          <t>B09PV82YL6</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>B09YD1RPC5</t>
+          <t>B09MTS6XKC</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>B09RZLZNCX</t>
+          <t>B09MVVZ3W3</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>B09WH5VPJB</t>
+          <t>B09MVW4BMH</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>B09V55QX2V</t>
+          <t>B09PBH2HSB</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>B09MRNBTZS</t>
+          <t>B09MRMX611</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>B09TSY3NKQ</t>
+          <t>B09P55CYRB</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>B09MTQTRC6</t>
+          <t>B09H5RD4NB</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>B09MRMX611</t>
+          <t>B09MVW4BX3</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>B09PV82YL6</t>
+          <t>B09XTN117R</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>B09TP8LPM9</t>
+          <t>B09PFVTTJP</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>B09DY2XB3D</t>
+          <t>B09YD1RPC5</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>B09X1PPT4R</t>
+          <t>B09TSY3NKQ</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>B09MVVZ3W3</t>
+          <t>B09M8BDXK9</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>B09V5S1X85</t>
+          <t>B09KRJV89C</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>B09MRM9V12</t>
+          <t>B09V5S1X85</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>B09SBBLBVV</t>
+          <t>B09M8CTWBG</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>B09MVHTV4Z</t>
+          <t>B09KRL1DJR</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>B09PV7YBP1</t>
+          <t>B09X1DFGQ8</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>B09VY856SN</t>
+          <t>B09SV5GYD4</t>
         </is>
       </c>
     </row>
@@ -856,140 +856,175 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>B09N15GVVB</t>
+          <t>B09YR34NLP</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>B09SV57798</t>
+          <t>B09PQJ8T1V</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>B09KRJV89C</t>
+          <t>B09SV5GN77</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>B09SV53Z57</t>
+          <t>B09JG93M6L</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>B09PNGKWKN</t>
+          <t>B0B142FN77</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>B09SV5GN77</t>
+          <t>B09VY7FRG7</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>B09N157JW9</t>
+          <t>B09SBBLBVV</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>B09MRN5Y2Y</t>
+          <t>B09VY856SN</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>B09M8BDXK9</t>
+          <t>B09YTDQRNC</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>B09H5RD4NB</t>
+          <t>B09V7Q3ZVF</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>B09MRNQ7KF</t>
+          <t>B09MRNBTZS</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>B09Z4PMXB1</t>
+          <t>B09P1HR8X6</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>B09PBPD927</t>
+          <t>B09SV53Z57</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>B09PBH2HSB</t>
+          <t>B09P55216R</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>B09X1DP1MW</t>
+          <t>B09H5RP6RP</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>B09SV4F1CD</t>
+          <t>B09N15GVVB</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>B09XTLCRH7</t>
+          <t>B09MRLXKPN</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>B09MVV5WSS</t>
+          <t>B09YR3643S</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>B09N12ZX71</t>
+          <t>B09SV5WFSW</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>B09M8CTWBG</t>
+          <t>B09PNFJCH2</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>B09YTWLPZ3</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>B09PBMNPKT</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>B09MVJ4FDT</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>B09MVV5WSS</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>B09N14N3W1</t>
         </is>
       </c>
     </row>

--- a/sku_list.xlsx
+++ b/sku_list.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A85"/>
+  <dimension ref="A1:A88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,574 +443,574 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>B09MRNQ7KF</t>
+          <t>B09SV5WFSW</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>B09P1GR6NK</t>
+          <t>B09MRLXKPN</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>B09X1CQ2VK</t>
+          <t>B09P1HR8X6</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>B09PV758HF</t>
+          <t>B09MRMZSC7</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>B09Z4PMXB1</t>
+          <t>B09MVW4BMH</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>B09VY79JLC</t>
+          <t>B09H5S49MF</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>B09PNGKWKN</t>
+          <t>B09PBPD927</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>B09MRM9V12</t>
+          <t>B09N157JW9</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>B09H5S49MF</t>
+          <t>B09V55QX2V</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>B09PV66S6B</t>
+          <t>B09X1DFGQ8</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>B09X1DP1MW</t>
+          <t>B09PV82YL6</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>B09V55QX2V</t>
+          <t>B09KRJV89C</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>B09X1PPT4R</t>
+          <t>B09Z2W2927</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>B09SV57798</t>
+          <t>B09YR34NLP</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>B09X1GLXXF</t>
+          <t>B09KRL1DJR</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>B09PYJ8DSD</t>
+          <t>B09PFVTTJP</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>B09MTQTRC6</t>
+          <t>B09P55216R</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>B09N166GM8</t>
+          <t>B09YD1QFHC</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>B09PNFRBJX</t>
+          <t>B09M8BDXK9</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>B09MRMZSC7</t>
+          <t>B09MRN5Y2Y</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>B09N157JW9</t>
+          <t>B09YTDQRNC</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>B09PNDVJ79</t>
+          <t>B09N12ZX71</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>B09Z2W2927</t>
+          <t>B09PYJ8DSD</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>B09YD1QFHC</t>
+          <t>B09YTWLPZ3</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>B09PNGKK6B</t>
+          <t>B09JG93M6L</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>B09WH5VPJB</t>
+          <t>B09X1F2SKH</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>B09DY2XB3D</t>
+          <t>B09WGLYGMM</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>B09RZLZNCX</t>
+          <t>B09XTLCRH7</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>B09MRN5Y2Y</t>
+          <t>B09PNFJCH2</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>B09SV4F1CD</t>
+          <t>B09ZXRY52J</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>B09X1F2SKH</t>
+          <t>B09PV66S6B</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>B09PBPD927</t>
+          <t>B09RZLZNCX</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>B09MVHTV4Z</t>
+          <t>B09MRM9V12</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>B09N12ZX71</t>
+          <t>B09MVVZ3W3</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>B09PV7YBP1</t>
+          <t>B09VY856SN</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>B09WGLYGMM</t>
+          <t>B09VY79JLC</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>B09XTLCRH7</t>
+          <t>B09ZXXDVZF</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>B09TP8LPM9</t>
+          <t>B09PNGKWKN</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>B09PV82YL6</t>
+          <t>B09PNDVJ79</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>B09MTS6XKC</t>
+          <t>B09YR3643S</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>B09MVVZ3W3</t>
+          <t>B09H5RP6RP</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>B09MVW4BMH</t>
+          <t>B09MTS6XKC</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>B09PBH2HSB</t>
+          <t>B09X1DP1MW</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>B09MRMX611</t>
+          <t>B09TP8LPM9</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>B09P55CYRB</t>
+          <t>B09X1PPT4R</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>B09H5RD4NB</t>
+          <t>B09MRNQ7KF</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>B09MVW4BX3</t>
+          <t>B09P1GR6NK</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>B09XTN117R</t>
+          <t>B09Z4PMXB1</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>B09PFVTTJP</t>
+          <t>B09N14N3W1</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>B09YD1RPC5</t>
+          <t>B09MRMX611</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>B09TSY3NKQ</t>
+          <t>B09SV53Z57</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>B09M8BDXK9</t>
+          <t>B09TSY3NKQ</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>B09KRJV89C</t>
+          <t>B09XTN117R</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>B09V5S1X85</t>
+          <t>B09M8CTWBG</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>B09M8CTWBG</t>
+          <t>B09N166GM8</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>B09KRL1DJR</t>
+          <t>B09DY2XB3D</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>B09X1DFGQ8</t>
+          <t>B09P55CYRB</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>B09SV5GYD4</t>
+          <t>B09PBMNPKT</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>B09PNFNMZV</t>
+          <t>B0B142FN77</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>B09YR34NLP</t>
+          <t>B09MVW4BX3</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>B09PQJ8T1V</t>
+          <t>B09SV5GN77</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>B09SV5GN77</t>
+          <t>B09SV57798</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>B09JG93M6L</t>
+          <t>B09MVJ4FDT</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>B0B142FN77</t>
+          <t>B09ZY6PGT9</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>B09VY7FRG7</t>
+          <t>B09PNFNMZV</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>B09SBBLBVV</t>
+          <t>B09PNGKK6B</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>B09VY856SN</t>
+          <t>B09X1GLXXF</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>B09YTDQRNC</t>
+          <t>B09PNFRBJX</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>B09V7Q3ZVF</t>
+          <t>B09MVHTV4Z</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>B09MRNBTZS</t>
+          <t>B09PV7YBP1</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>B09P1HR8X6</t>
+          <t>B09V5S1X85</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>B09SV53Z57</t>
+          <t>B09MTQTRC6</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>B09P55216R</t>
+          <t>B09H5RD4NB</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>B09H5RP6RP</t>
+          <t>B09MRNBTZS</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>B09N15GVVB</t>
+          <t>B09PBH2HSB</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>B09MRLXKPN</t>
+          <t>B09PQJ8T1V</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>B09YR3643S</t>
+          <t>B09SV4F1CD</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>B09SV5WFSW</t>
+          <t>B09PV758HF</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>B09PNFJCH2</t>
+          <t>B09X1CQ2VK</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>B09YTWLPZ3</t>
+          <t>B09VY7FRG7</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>B09PBMNPKT</t>
+          <t>B09V7Q3ZVF</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>B09MVJ4FDT</t>
+          <t>B09WH5VPJB</t>
         </is>
       </c>
     </row>
@@ -1024,7 +1024,28 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>B09N14N3W1</t>
+          <t>B09N15GVVB</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>B09SV5GYD4</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>B09SBBLBVV</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>B09YD1RPC5</t>
         </is>
       </c>
     </row>

--- a/sku_list.xlsx
+++ b/sku_list.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A85"/>
+  <dimension ref="A1:A96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,588 +443,665 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>B09MRNQ7KF</t>
+          <t>B0B3RM9XX1</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>B09P1GR6NK</t>
+          <t>B0B5239WNT</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>B09X1CQ2VK</t>
+          <t>B09SV4F1CD</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>B09PV758HF</t>
+          <t>B09PYJ8DSD</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>B09Z4PMXB1</t>
+          <t>B0B5L3HMTR</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>B09VY79JLC</t>
+          <t>B0B2JQVQ3G</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>B09PNGKWKN</t>
+          <t>B09SV5WFSW</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>B09MRM9V12</t>
+          <t>B09YD1RPC5</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>B09H5S49MF</t>
+          <t>B09MRMZSC7</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>B09PV66S6B</t>
+          <t>B09N15GVVB</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>B09X1DP1MW</t>
+          <t>B09MVV5WSS</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>B09V55QX2V</t>
+          <t>B09YTWLPZ3</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>B09X1PPT4R</t>
+          <t>B09P55CYRB</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>B09SV57798</t>
+          <t>B09TP8LPM9</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>B09X1GLXXF</t>
+          <t>B09M8CTWBG</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>B09PYJ8DSD</t>
+          <t>B09PNFNMZV</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>B09MTQTRC6</t>
+          <t>B09SV53Z57</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>B09N166GM8</t>
+          <t>B09P55216R</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>B09PNFRBJX</t>
+          <t>B09V7Q3ZVF</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>B09MRMZSC7</t>
+          <t>B0B2JS2D27</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>B09N157JW9</t>
+          <t>B09N166GM8</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>B09PNDVJ79</t>
+          <t>B09TDTSG2X</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>B09Z2W2927</t>
+          <t>B09PBH2HSB</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>B09YD1QFHC</t>
+          <t>B09PBPD927</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>B09PNGKK6B</t>
+          <t>B09MRNBTZS</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>B09WH5VPJB</t>
+          <t>B09SV5GYD4</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>B09DY2XB3D</t>
+          <t>B0B5KZS9F4</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>B09RZLZNCX</t>
+          <t>B09ZY6PGT9</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>B09MRN5Y2Y</t>
+          <t>B09Z2HC8Y6</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>B09SV4F1CD</t>
+          <t>B09ZXXDVZF</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>B09X1F2SKH</t>
+          <t>B09Z1YMKBD</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>B09PBPD927</t>
+          <t>B09MVVZ3W3</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>B09MVHTV4Z</t>
+          <t>B09PNDVJ79</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>B09N12ZX71</t>
+          <t>B09PV7YBP1</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>B09PV7YBP1</t>
+          <t>B09N12ZX71</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>B09WGLYGMM</t>
+          <t>B09X1F2SKH</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>B09XTLCRH7</t>
+          <t>B0B2RK97J9</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>B09TP8LPM9</t>
+          <t>B09X1DFGQ8</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>B09PV82YL6</t>
+          <t>B0B2RKFQ4C</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>B09MTS6XKC</t>
+          <t>B09SV5GN77</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>B09MVVZ3W3</t>
+          <t>B09PNFJCH2</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>B09MVW4BMH</t>
+          <t>B09X1CQ2VK</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>B09PBH2HSB</t>
+          <t>B0B142FN77</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>B09MRMX611</t>
+          <t>B09TKWT3ZF</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>B09P55CYRB</t>
+          <t>B09MVW4BX3</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>B09H5RD4NB</t>
+          <t>B09YR3643S</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>B09MVW4BX3</t>
+          <t>B09X1PPT4R</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>B09XTN117R</t>
+          <t>B09WGLYGMM</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>B09PFVTTJP</t>
+          <t>B09PV66S6B</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>B09YD1RPC5</t>
+          <t>B0B2JRWMLP</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>B09TSY3NKQ</t>
+          <t>B09MRMX611</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>B09M8BDXK9</t>
+          <t>B09MRN5Y2Y</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>B09KRJV89C</t>
+          <t>B0B2RJGYH7</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>B09V5S1X85</t>
+          <t>B09H5RP6RP</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>B09M8CTWBG</t>
+          <t>B09N16MDSD</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>B09KRL1DJR</t>
+          <t>B09MVHTV4Z</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>B09X1DFGQ8</t>
+          <t>B0B1HVQP3V</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>B09SV5GYD4</t>
+          <t>B09PV758HF</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>B09PNFNMZV</t>
+          <t>B09ZXRY52J</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>B09YR34NLP</t>
+          <t>B09TKWZ5LR</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>B09PQJ8T1V</t>
+          <t>B09SBBLBVV</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>B09SV5GN77</t>
+          <t>B09WH5VPJB</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>B09JG93M6L</t>
+          <t>B09PQJ8T1V</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>B0B142FN77</t>
+          <t>B09MRNQ7KF</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>B09VY7FRG7</t>
+          <t>B09TSY3NKQ</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>B09SBBLBVV</t>
+          <t>B09MVJ4FDT</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>B09VY856SN</t>
+          <t>B09M8BDXK9</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>B09YTDQRNC</t>
+          <t>B0B5BZK7WB</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>B09V7Q3ZVF</t>
+          <t>B09MRM9V12</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>B09MRNBTZS</t>
+          <t>B09N157JW9</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>B09P1HR8X6</t>
+          <t>B09PV82YL6</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>B09SV53Z57</t>
+          <t>B09KRL1DJR</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>B09P55216R</t>
+          <t>B09SV57798</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>B09H5RP6RP</t>
+          <t>B09P1HR8X6</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>B09N15GVVB</t>
+          <t>B09PBMNPKT</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>B09MRLXKPN</t>
+          <t>B09X1DP1MW</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>B09YR3643S</t>
+          <t>B09MTQTRC6</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>B09SV5WFSW</t>
+          <t>B09P1GR6NK</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>B09PNFJCH2</t>
+          <t>B0B7J282XH</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>B09YTWLPZ3</t>
+          <t>B09TD17DN2</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>B09PBMNPKT</t>
+          <t>B09MRLXKPN</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>B09MVJ4FDT</t>
+          <t>B09MTS6XKC</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>B09MVV5WSS</t>
+          <t>B0B3RSZHGH</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
+          <t>B09PNGKWKN</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>B09KRJV89C</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>B09X1GLXXF</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>B09YTDQRNC</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>B09PFVTTJP</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>B0B2JWLRY6</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>B0B5L256GH</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>B09MVW4BMH</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>B09PNFRBJX</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>B09H5RD4NB</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
           <t>B09N14N3W1</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>B09YD1QFHC</t>
         </is>
       </c>
     </row>
